--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E478F1-7FE8-44D0-A5F9-98A629167CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2CBE7E-729B-4D59-9CA3-6A5BA3668AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B20C54E1-7D38-4A77-8B3B-EAC1DC415E7E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B20C54E1-7D38-4A77-8B3B-EAC1DC415E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -60,14 +60,6 @@
     <t>Giá mua</t>
   </si>
   <si>
-    <t>Giá bán
-R0</t>
-  </si>
-  <si>
-    <t>Giá bán
-R1</t>
-  </si>
-  <si>
     <t>Đại lý</t>
   </si>
   <si>
@@ -153,6 +145,12 @@
   </si>
   <si>
     <t>Đại lý F</t>
+  </si>
+  <si>
+    <t>Giá bán R0</t>
+  </si>
+  <si>
+    <t>Giá bán R1</t>
   </si>
 </sst>
 </file>
@@ -600,7 +598,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -654,271 +652,283 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5">
         <v>45570</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L3" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M3" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="O3" s="6">
+        <v>25000</v>
+      </c>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="5">
         <v>45571</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="3">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="3">
+        <v>21000</v>
+      </c>
+      <c r="M4" s="3">
+        <v>22000</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="M4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6">
+        <v>25000</v>
+      </c>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5">
         <v>45572</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L5" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M5" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="O5" s="6">
+        <v>25000</v>
+      </c>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>45573</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L6" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M6" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="O6" s="6">
+        <v>25000</v>
+      </c>
       <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5">
         <v>45574</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L7" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M7" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="O7" s="6">
+        <v>25000</v>
+      </c>
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5">
         <v>45575</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L8" s="3">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M8" s="3">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="O8" s="6">
+        <v>25000</v>
+      </c>
       <c r="P8" s="6"/>
     </row>
   </sheetData>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2CBE7E-729B-4D59-9CA3-6A5BA3668AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F604A88E-B3DE-41A5-BCD7-957D383976C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B20C54E1-7D38-4A77-8B3B-EAC1DC415E7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>PO</t>
   </si>
@@ -73,30 +73,6 @@
   </si>
   <si>
     <t>NV20241113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0170
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0171
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0172
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0173
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0174
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0175
-</t>
   </si>
   <si>
     <t>SẠC</t>
@@ -260,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -280,6 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,18 +575,19 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -652,10 +630,10 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>11</v>
@@ -667,32 +645,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
+      <c r="B3" s="7" t="str">
+        <f ca="1">"PK_SAC_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
+        <v>PK_SAC_39418</v>
       </c>
       <c r="C3" s="5">
         <v>45570</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3">
         <v>20000</v>
@@ -704,39 +683,40 @@
         <v>22000</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="O3" s="6">
         <v>25000</v>
       </c>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
+      <c r="B4" s="7" t="str">
+        <f t="shared" ref="B4:B8" ca="1" si="0">"PK_SAC_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
+        <v>PK_SAC_46183</v>
       </c>
       <c r="C4" s="5">
         <v>45571</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3">
         <v>20000</v>
@@ -748,39 +728,40 @@
         <v>22000</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O4" s="6">
         <v>25000</v>
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
+      <c r="B5" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_SAC_56612</v>
       </c>
       <c r="C5" s="5">
         <v>45572</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K5" s="3">
         <v>20000</v>
@@ -792,39 +773,40 @@
         <v>22000</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O5" s="6">
         <v>25000</v>
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
+      <c r="B6" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_SAC_15332</v>
       </c>
       <c r="C6" s="5">
         <v>45573</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K6" s="3">
         <v>20000</v>
@@ -836,39 +818,40 @@
         <v>22000</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O6" s="6">
         <v>25000</v>
       </c>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+      <c r="B7" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_SAC_77730</v>
       </c>
       <c r="C7" s="5">
         <v>45574</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K7" s="3">
         <v>20000</v>
@@ -880,39 +863,40 @@
         <v>22000</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O7" s="6">
         <v>25000</v>
       </c>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
+      <c r="B8" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_SAC_14267</v>
       </c>
       <c r="C8" s="5">
         <v>45575</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K8" s="3">
         <v>20000</v>
@@ -924,7 +908,7 @@
         <v>22000</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O8" s="6">
         <v>25000</v>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F604A88E-B3DE-41A5-BCD7-957D383976C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C5C403-7037-4EC2-83C7-6786B9271D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B20C54E1-7D38-4A77-8B3B-EAC1DC415E7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B20C54E1-7D38-4A77-8B3B-EAC1DC415E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>PO</t>
   </si>
@@ -75,52 +75,7 @@
     <t>NV20241113</t>
   </si>
   <si>
-    <t>SẠC</t>
-  </si>
-  <si>
     <t>PHỤ KIỆN</t>
-  </si>
-  <si>
-    <t>PTE15N Pro</t>
-  </si>
-  <si>
-    <t>SN-202508-00001</t>
-  </si>
-  <si>
-    <t>SN-202508-00002</t>
-  </si>
-  <si>
-    <t>SN-202508-00003</t>
-  </si>
-  <si>
-    <t>SN-202508-00004</t>
-  </si>
-  <si>
-    <t>SN-202508-00005</t>
-  </si>
-  <si>
-    <t>SN-202508-00006</t>
-  </si>
-  <si>
-    <t>12A</t>
-  </si>
-  <si>
-    <t>Đại lý A</t>
-  </si>
-  <si>
-    <t>Đại lý B</t>
-  </si>
-  <si>
-    <t>Đại lý C</t>
-  </si>
-  <si>
-    <t>Đại lý D</t>
-  </si>
-  <si>
-    <t>Đại lý E</t>
-  </si>
-  <si>
-    <t>Đại lý F</t>
   </si>
   <si>
     <t>Giá bán R0</t>
@@ -170,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,6 +218,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB436FE-99C5-41B5-93C4-B5CA77530EA3}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +566,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -608,13 +575,13 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -623,22 +590,22 @@
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -651,42 +618,55 @@
       </c>
       <c r="B3" s="7" t="str">
         <f ca="1">"PK_SAC_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_SAC_39418</v>
+        <v>PK_SAC_41133</v>
       </c>
       <c r="C3" s="5">
         <v>45570</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
+      <c r="E3" s="6" t="str">
+        <f ca="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
+        <v>PPT_3</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>8FD25</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f ca="1">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
+        <v>SN-202509-75217</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
+      <c r="J3" s="4" t="str">
+        <f ca="1">RANDBETWEEN(1,50) &amp; "A"</f>
+        <v>45A</v>
       </c>
       <c r="K3" s="3">
-        <v>20000</v>
+        <f ca="1">RANDBETWEEN(1,5)*10</f>
+        <v>40</v>
       </c>
       <c r="L3" s="3">
-        <v>21000</v>
+        <f ca="1">RANDBETWEEN(16,20)*10</f>
+        <v>190</v>
       </c>
       <c r="M3" s="3">
-        <v>22000</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>26</v>
+        <f ca="1">RANDBETWEEN(6,10)*10</f>
+        <v>70</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f ca="1">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
+        <v>Đại lý_D</v>
       </c>
       <c r="O3" s="6">
-        <v>25000</v>
+        <f ca="1">RANDBETWEEN(11,15)*10</f>
+        <v>110</v>
       </c>
       <c r="P3" s="6"/>
     </row>
@@ -696,42 +676,55 @@
       </c>
       <c r="B4" s="7" t="str">
         <f t="shared" ref="B4:B8" ca="1" si="0">"PK_SAC_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_SAC_46183</v>
+        <v>PK_SAC_84775</v>
       </c>
       <c r="C4" s="5">
         <v>45571</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
+      <c r="E4" s="6" t="str">
+        <f t="shared" ref="E4:E8" ca="1" si="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
+        <v>PPT_1</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" ref="F4:F8" ca="1" si="2">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>J2.5XN</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ref="G4:G8" ca="1" si="3">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
+        <v>SN-202509-07798</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="4" t="s">
-        <v>25</v>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ref="J4:J8" ca="1" si="4">RANDBETWEEN(1,50) &amp; "A"</f>
+        <v>30A</v>
       </c>
       <c r="K4" s="3">
-        <v>20000</v>
+        <f t="shared" ref="K4:K8" ca="1" si="5">RANDBETWEEN(1,5)*10</f>
+        <v>40</v>
       </c>
       <c r="L4" s="3">
-        <v>21000</v>
+        <f t="shared" ref="L4:L8" ca="1" si="6">RANDBETWEEN(16,20)*10</f>
+        <v>160</v>
       </c>
       <c r="M4" s="3">
-        <v>22000</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>27</v>
+        <f t="shared" ref="M4:M8" ca="1" si="7">RANDBETWEEN(6,10)*10</f>
+        <v>70</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f t="shared" ref="N4:N8" ca="1" si="8">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
+        <v>Đại lý_B</v>
       </c>
       <c r="O4" s="6">
-        <v>25000</v>
+        <f t="shared" ref="O4:O8" ca="1" si="9">RANDBETWEEN(11,15)*10</f>
+        <v>130</v>
       </c>
       <c r="P4" s="6"/>
     </row>
@@ -741,42 +734,51 @@
       </c>
       <c r="B5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_56612</v>
+        <v>PK_SAC_05399</v>
       </c>
       <c r="C5" s="5">
         <v>45572</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_4</v>
+      </c>
+      <c r="F5" s="4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-58608</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="4" t="s">
-        <v>25</v>
+      <c r="J5" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>19A</v>
       </c>
       <c r="K5" s="3">
-        <v>20000</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
-        <v>21000</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>160</v>
       </c>
       <c r="M5" s="3">
-        <v>22000</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>28</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Đại lý_D</v>
       </c>
       <c r="O5" s="6">
-        <v>25000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>140</v>
       </c>
       <c r="P5" s="6"/>
     </row>
@@ -786,42 +788,51 @@
       </c>
       <c r="B6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_15332</v>
+        <v>PK_SAC_32006</v>
       </c>
       <c r="C6" s="5">
         <v>45573</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
+      <c r="E6" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_1</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>8FD25</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-12449</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
+      <c r="J6" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>13A</v>
       </c>
       <c r="K6" s="3">
-        <v>20000</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
       </c>
       <c r="L6" s="3">
-        <v>21000</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>160</v>
       </c>
       <c r="M6" s="3">
-        <v>22000</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Đại lý_A</v>
       </c>
       <c r="O6" s="6">
-        <v>25000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>130</v>
       </c>
       <c r="P6" s="6"/>
     </row>
@@ -831,42 +842,51 @@
       </c>
       <c r="B7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_77730</v>
+        <v>PK_SAC_78328</v>
       </c>
       <c r="C7" s="5">
         <v>45574</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
+      <c r="E7" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_4</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>FD30T-16</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-48313</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="4" t="s">
-        <v>25</v>
+      <c r="J7" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>21A</v>
       </c>
       <c r="K7" s="3">
-        <v>20000</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
       </c>
       <c r="L7" s="3">
-        <v>21000</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>190</v>
       </c>
       <c r="M7" s="3">
-        <v>22000</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="N7" s="3" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Đại lý_B</v>
       </c>
       <c r="O7" s="6">
-        <v>25000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>110</v>
       </c>
       <c r="P7" s="6"/>
     </row>
@@ -876,42 +896,51 @@
       </c>
       <c r="B8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_14267</v>
+        <v>PK_SAC_07795</v>
       </c>
       <c r="C8" s="5">
         <v>45575</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
+      <c r="E8" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_2</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>FE4P16</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-72644</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="4" t="s">
-        <v>25</v>
+      <c r="J8" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>36A</v>
       </c>
       <c r="K8" s="3">
-        <v>20000</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
       </c>
       <c r="L8" s="3">
-        <v>21000</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>22000</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>31</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Đại lý_D</v>
       </c>
       <c r="O8" s="6">
-        <v>25000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>150</v>
       </c>
       <c r="P8" s="6"/>
     </row>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MeU\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C5C403-7037-4EC2-83C7-6786B9271D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4605A484-C938-4765-9D8F-F458898AE490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B20C54E1-7D38-4A77-8B3B-EAC1DC415E7E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B20C54E1-7D38-4A77-8B3B-EAC1DC415E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>PO</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Giá bán R1</t>
+  </si>
+  <si>
+    <t>Giá khác</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB436FE-99C5-41B5-93C4-B5CA77530EA3}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,15 +557,15 @@
     <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,22 +606,25 @@
         <v>18</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="7" t="str">
         <f ca="1">"PK_SAC_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_SAC_41133</v>
+        <v>PK_SAC_05344</v>
       </c>
       <c r="C3" s="5">
         <v>45570</v>
@@ -628,7 +634,7 @@
       </c>
       <c r="E3" s="6" t="str">
         <f ca="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_3</v>
+        <v>PPT_1</v>
       </c>
       <c r="F3" s="4" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,11),
@@ -640,43 +646,47 @@
       </c>
       <c r="G3" s="3" t="str">
         <f ca="1">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202509-75217</v>
+        <v>SN-202510-24777</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4" t="str">
         <f ca="1">RANDBETWEEN(1,50) &amp; "A"</f>
-        <v>45A</v>
+        <v>22A</v>
       </c>
       <c r="K3" s="3">
         <f ca="1">RANDBETWEEN(1,5)*10</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L3" s="3">
         <f ca="1">RANDBETWEEN(16,20)*10</f>
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M3" s="3">
         <f ca="1">RANDBETWEEN(6,10)*10</f>
-        <v>70</v>
-      </c>
-      <c r="N3" s="3" t="str">
+        <v>80</v>
+      </c>
+      <c r="N3" s="3">
+        <f ca="1">RANDBETWEEN(6,10)*10</f>
+        <v>80</v>
+      </c>
+      <c r="O3" s="3" t="str">
         <f ca="1">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
-        <v>Đại lý_D</v>
-      </c>
-      <c r="O3" s="6">
+        <v>Đại lý_E</v>
+      </c>
+      <c r="P3" s="6">
         <f ca="1">RANDBETWEEN(11,15)*10</f>
-        <v>110</v>
-      </c>
-      <c r="P3" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="7" t="str">
         <f t="shared" ref="B4:B8" ca="1" si="0">"PK_SAC_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_SAC_84775</v>
+        <v>PK_SAC_01411</v>
       </c>
       <c r="C4" s="5">
         <v>45571</v>
@@ -698,13 +708,13 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G8" ca="1" si="3">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202509-07798</v>
+        <v>SN-202510-41655</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="4" t="str">
         <f t="shared" ref="J4:J8" ca="1" si="4">RANDBETWEEN(1,50) &amp; "A"</f>
-        <v>30A</v>
+        <v>6A</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K8" ca="1" si="5">RANDBETWEEN(1,5)*10</f>
@@ -712,29 +722,33 @@
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L8" ca="1" si="6">RANDBETWEEN(16,20)*10</f>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:M8" ca="1" si="7">RANDBETWEEN(6,10)*10</f>
+        <f t="shared" ref="M4:N8" ca="1" si="7">RANDBETWEEN(6,10)*10</f>
+        <v>90</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ca="1" si="7"/>
         <v>70</v>
       </c>
-      <c r="N4" s="3" t="str">
-        <f t="shared" ref="N4:N8" ca="1" si="8">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
+      <c r="O4" s="3" t="str">
+        <f t="shared" ref="O4:O8" ca="1" si="8">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
         <v>Đại lý_B</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" ref="O4:O8" ca="1" si="9">RANDBETWEEN(11,15)*10</f>
-        <v>130</v>
-      </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6">
+        <f t="shared" ref="P4:P8" ca="1" si="9">RANDBETWEEN(11,15)*10</f>
+        <v>140</v>
+      </c>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_05399</v>
+        <v>PK_SAC_33671</v>
       </c>
       <c r="C5" s="5">
         <v>45572</v>
@@ -746,49 +760,53 @@
         <f t="shared" ca="1" si="1"/>
         <v>PPT_4</v>
       </c>
-      <c r="F5" s="4" t="e">
+      <c r="F5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
+        <v>8FD25</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-58608</v>
+        <v>SN-202510-51938</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>19A</v>
+        <v>48A</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="7"/>
         <v>100</v>
       </c>
-      <c r="N5" s="3" t="str">
+      <c r="N5" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O5" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Đại lý_D</v>
-      </c>
-      <c r="O5" s="6">
+        <v>Đại lý_B</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="P5" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_32006</v>
+        <v>PK_SAC_71880</v>
       </c>
       <c r="C6" s="5">
         <v>45573</v>
@@ -798,51 +816,55 @@
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_1</v>
+        <v>PPT_3</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8FD25</v>
+        <v>8FB15</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-12449</v>
+        <v>SN-202510-08339</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>13A</v>
+        <v>40A</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="N6" s="3" t="str">
+        <v>90</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Đại lý_A</v>
-      </c>
-      <c r="O6" s="6">
+        <v>Đại lý_C</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>130</v>
-      </c>
-      <c r="P6" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_78328</v>
+        <v>PK_SAC_65572</v>
       </c>
       <c r="C7" s="5">
         <v>45574</v>
@@ -852,51 +874,55 @@
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_4</v>
+        <v>PPT_1</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FD30T-16</v>
+        <v>8FD25</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-48313</v>
+        <v>SN-202510-14951</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>21A</v>
+        <v>25A</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="7"/>
         <v>100</v>
       </c>
-      <c r="N7" s="3" t="str">
+      <c r="N7" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="O7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Đại lý_B</v>
-      </c>
-      <c r="O7" s="6">
+        <v>Đại lý_A</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="P7" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_07795</v>
+        <v>PK_SAC_80212</v>
       </c>
       <c r="C8" s="5">
         <v>45575</v>
@@ -906,21 +932,21 @@
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_2</v>
+        <v>PPT_4</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FE4P16</v>
+        <v>FD30T-16</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-72644</v>
+        <v>SN-202510-54518</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>36A</v>
+        <v>30A</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -928,21 +954,25 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" ca="1" si="7"/>
         <v>80</v>
       </c>
-      <c r="N8" s="3" t="str">
+      <c r="N8" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="O8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>Đại lý_D</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>150</v>
-      </c>
-      <c r="P8" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="Q8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_CHARGER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MeU\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4605A484-C938-4765-9D8F-F458898AE490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E949138-CBD6-497A-9884-A85F263D4199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B20C54E1-7D38-4A77-8B3B-EAC1DC415E7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>PO</t>
   </si>
@@ -85,13 +85,103 @@
   </si>
   <si>
     <t>Giá khác</t>
+  </si>
+  <si>
+    <t>PK_SAC_63406</t>
+  </si>
+  <si>
+    <t>PPT_4</t>
+  </si>
+  <si>
+    <t>FE4P25</t>
+  </si>
+  <si>
+    <t>SN-202510-69059</t>
+  </si>
+  <si>
+    <t>50A</t>
+  </si>
+  <si>
+    <t>Đại lý_B</t>
+  </si>
+  <si>
+    <t>PK_SAC_03860</t>
+  </si>
+  <si>
+    <t>PPT_2</t>
+  </si>
+  <si>
+    <t>J2.5XN</t>
+  </si>
+  <si>
+    <t>SN-202510-27146</t>
+  </si>
+  <si>
+    <t>23A</t>
+  </si>
+  <si>
+    <t>Đại lý_E</t>
+  </si>
+  <si>
+    <t>PK_SAC_82778</t>
+  </si>
+  <si>
+    <t>7FBEU18</t>
+  </si>
+  <si>
+    <t>SN-202510-10978</t>
+  </si>
+  <si>
+    <t>19A</t>
+  </si>
+  <si>
+    <t>PK_SAC_57751</t>
+  </si>
+  <si>
+    <t>PPT_5</t>
+  </si>
+  <si>
+    <t>8FB15</t>
+  </si>
+  <si>
+    <t>SN-202510-48127</t>
+  </si>
+  <si>
+    <t>39A</t>
+  </si>
+  <si>
+    <t>Đại lý_C</t>
+  </si>
+  <si>
+    <t>PK_SAC_47674</t>
+  </si>
+  <si>
+    <t>H3.0FT</t>
+  </si>
+  <si>
+    <t>SN-202510-63336</t>
+  </si>
+  <si>
+    <t>49A</t>
+  </si>
+  <si>
+    <t>PK_SAC_17210</t>
+  </si>
+  <si>
+    <t>SN-202510-11278</t>
+  </si>
+  <si>
+    <t>37A</t>
+  </si>
+  <si>
+    <t>Đại lý_A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,11 +204,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
@@ -148,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,60 +256,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -544,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB436FE-99C5-41B5-93C4-B5CA77530EA3}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,49 +612,49 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -619,363 +662,289 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f ca="1">"PK_SAC_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_SAC_05344</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
         <v>45570</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="str">
-        <f ca="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_1</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>8FD25</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f ca="1">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202510-24777</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4" t="str">
-        <f ca="1">RANDBETWEEN(1,50) &amp; "A"</f>
-        <v>22A</v>
-      </c>
-      <c r="K3" s="3">
-        <f ca="1">RANDBETWEEN(1,5)*10</f>
-        <v>20</v>
-      </c>
-      <c r="L3" s="3">
-        <f ca="1">RANDBETWEEN(16,20)*10</f>
-        <v>180</v>
-      </c>
-      <c r="M3" s="3">
-        <f ca="1">RANDBETWEEN(6,10)*10</f>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>170</v>
+      </c>
+      <c r="M3" s="1">
         <v>80</v>
       </c>
-      <c r="N3" s="3">
-        <f ca="1">RANDBETWEEN(6,10)*10</f>
-        <v>80</v>
-      </c>
-      <c r="O3" s="3" t="str">
-        <f ca="1">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
-        <v>Đại lý_E</v>
-      </c>
-      <c r="P3" s="6">
-        <f ca="1">RANDBETWEEN(11,15)*10</f>
-        <v>140</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="N3" s="1">
+        <v>90</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="str">
-        <f t="shared" ref="B4:B8" ca="1" si="0">"PK_SAC_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_SAC_01411</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
         <v>45571</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E8" ca="1" si="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_1</v>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" ref="F4:F8" ca="1" si="2">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>J2.5XN</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G8" ca="1" si="3">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202510-41655</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J8" ca="1" si="4">RANDBETWEEN(1,50) &amp; "A"</f>
-        <v>6A</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" ref="K4:K8" ca="1" si="5">RANDBETWEEN(1,5)*10</f>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1">
         <v>40</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:L8" ca="1" si="6">RANDBETWEEN(16,20)*10</f>
-        <v>190</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" ref="M4:N8" ca="1" si="7">RANDBETWEEN(6,10)*10</f>
+      <c r="L4" s="1">
+        <v>180</v>
+      </c>
+      <c r="M4" s="1">
         <v>90</v>
       </c>
-      <c r="N4" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="O4" s="3" t="str">
-        <f t="shared" ref="O4:O8" ca="1" si="8">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
-        <v>Đại lý_B</v>
-      </c>
-      <c r="P4" s="6">
-        <f t="shared" ref="P4:P8" ca="1" si="9">RANDBETWEEN(11,15)*10</f>
-        <v>140</v>
-      </c>
-      <c r="Q4" s="6"/>
+      <c r="N4" s="1">
+        <v>60</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_33671</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
         <v>45572</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_4</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>8FD25</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-51938</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>48A</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="O5" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Đại lý_B</v>
-      </c>
-      <c r="P5" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>130</v>
-      </c>
-      <c r="Q5" s="6"/>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1">
+        <v>190</v>
+      </c>
+      <c r="M5" s="1">
+        <v>90</v>
+      </c>
+      <c r="N5" s="1">
+        <v>80</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_71880</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
         <v>45573</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_3</v>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>8FB15</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-08339</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>40A</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>170</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="O6" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Đại lý_C</v>
-      </c>
-      <c r="P6" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>150</v>
-      </c>
-      <c r="Q6" s="6"/>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1">
+        <v>190</v>
+      </c>
+      <c r="M6" s="1">
+        <v>70</v>
+      </c>
+      <c r="N6" s="1">
+        <v>80</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_65572</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1">
         <v>45574</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_1</v>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>8FD25</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-14951</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>25A</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>170</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" ca="1" si="7"/>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1">
+        <v>180</v>
+      </c>
+      <c r="M7" s="1">
+        <v>70</v>
+      </c>
+      <c r="N7" s="1">
         <v>100</v>
       </c>
-      <c r="N7" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="O7" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Đại lý_A</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" ca="1" si="9"/>
+      <c r="O7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="1">
         <v>140</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_SAC_80212</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1">
         <v>45575</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_4</v>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>FD30T-16</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-54518</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>30A</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1">
         <v>170</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M8" s="1">
         <v>70</v>
       </c>
-      <c r="O8" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Đại lý_D</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="Q8" s="6"/>
+      <c r="N8" s="1">
+        <v>70</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>